--- a/doc/import/schools_import.xlsx
+++ b/doc/import/schools_import.xlsx
@@ -149,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,13 +157,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -550,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -563,344 +579,433 @@
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
         <v>550101</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
         <v>550102</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
         <v>550103</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
         <v>550104</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>550105</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
         <v>550107</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
         <v>550108</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
         <v>550109</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
         <v>550110</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
         <v>550111</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
         <v>550113</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
         <v>550114</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
         <v>550115</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
         <v>550116</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
         <v>550117</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
         <v>550118</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
         <v>550119</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
         <v>550120</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
         <v>550121</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
         <v>550122</v>
       </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
         <v>550123</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
         <v>550124</v>
       </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
         <v>550125</v>
       </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1">
         <v>550126</v>
       </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
         <v>550127</v>
       </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
         <v>550128</v>
       </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1">
         <v>550129</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1">
         <v>550131</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1">
         <v>550132</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
